--- a/output/table_estimates_incentives_mass_2.xlsx
+++ b/output/table_estimates_incentives_mass_2.xlsx
@@ -459,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.1067771216278144</v>
+        <v>-0.1099151016905759</v>
       </c>
       <c r="C2">
-        <v>0.01742243931322817</v>
+        <v>0.01746714012854158</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -473,10 +473,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.1605526861743177</v>
+        <v>-0.1745885901527239</v>
       </c>
       <c r="C3">
-        <v>0.01675341340536299</v>
+        <v>0.0167769363647087</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.04193431117917634</v>
+        <v>0.03685102444447826</v>
       </c>
       <c r="C4">
-        <v>0.01274865552725083</v>
+        <v>0.01277806053490555</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -501,10 +501,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.008870977844648029</v>
+        <v>-0.01019350630730076</v>
       </c>
       <c r="C5">
-        <v>0.009258570465729803</v>
+        <v>0.009268069216699176</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -515,10 +515,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.06599699806861872</v>
+        <v>-0.06631229717365317</v>
       </c>
       <c r="C6">
-        <v>0.009150064836630747</v>
+        <v>0.009156189775318114</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -529,10 +529,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.06766905899703073</v>
+        <v>0.06696877249335866</v>
       </c>
       <c r="C7">
-        <v>0.01299538252811515</v>
+        <v>0.01304401548491873</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.08382860864638088</v>
+        <v>-0.0817718376683951</v>
       </c>
       <c r="C8">
-        <v>0.01974396361952154</v>
+        <v>0.01978262964532045</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -557,10 +557,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.06071604322316856</v>
+        <v>0.05421415600914783</v>
       </c>
       <c r="C9">
-        <v>0.01710365512156205</v>
+        <v>0.01714772004784408</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.1771108704685458</v>
+        <v>-0.1698685322335402</v>
       </c>
       <c r="C10">
-        <v>0.008876278922034474</v>
+        <v>0.008915910798979344</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -585,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.001828289405782009</v>
+        <v>0.001193271757728223</v>
       </c>
       <c r="C11">
-        <v>0.001649363795279469</v>
+        <v>0.001652298298696618</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.06401160217230353</v>
+        <v>-0.06405586743896192</v>
       </c>
       <c r="C12">
-        <v>0.01856500426316397</v>
+        <v>0.0185132104405324</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -613,10 +613,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.819511744198075</v>
+        <v>2.776522653868742</v>
       </c>
       <c r="C13">
-        <v>0.02238450048221402</v>
+        <v>0.0223451922691019</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5444501744377348</v>
+        <v>0.5571711614599809</v>
       </c>
       <c r="C14">
-        <v>0.08616016833539476</v>
+        <v>0.08651402050970085</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-2.82065480900008</v>
+        <v>-2.829901610294726</v>
       </c>
       <c r="C17">
-        <v>0.01715518924176804</v>
+        <v>0.01728121028826771</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-0.3412945050313115</v>
+        <v>-0.3794142709705611</v>
       </c>
       <c r="C18">
-        <v>0.1007778095666302</v>
+        <v>0.1009736302673162</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -702,10 +702,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.8992957517320866</v>
+        <v>-0.9130588346298079</v>
       </c>
       <c r="C20">
-        <v>0.04190697788524708</v>
+        <v>0.04193207641174142</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
